--- a/simulation_data/two_step_algorithm/2s_error_level_6_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_6_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.47797450653816</v>
+        <v>93.07472424368291</v>
       </c>
       <c r="D2" t="n">
-        <v>8.650201366092018</v>
+        <v>7.014165366916335</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.34258698522581</v>
+        <v>92.98008747171076</v>
       </c>
       <c r="D3" t="n">
-        <v>7.385070637647054</v>
+        <v>6.784649994039083</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>93.28123694266073</v>
+        <v>90.81031026206199</v>
       </c>
       <c r="D4" t="n">
-        <v>8.505481562349502</v>
+        <v>7.739911471059221</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.62700449958454</v>
+        <v>89.21607352182184</v>
       </c>
       <c r="D5" t="n">
-        <v>7.350452253143938</v>
+        <v>7.159000586458069</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.03092178840184</v>
+        <v>90.5252507534334</v>
       </c>
       <c r="D6" t="n">
-        <v>7.278991453978087</v>
+        <v>7.447376190720083</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.34991506799911</v>
+        <v>88.0514506023374</v>
       </c>
       <c r="D7" t="n">
-        <v>6.972084166849728</v>
+        <v>7.140040946509171</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.97294865468453</v>
+        <v>86.48097456101388</v>
       </c>
       <c r="D8" t="n">
-        <v>8.098678258261284</v>
+        <v>7.281875744941325</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.57076582165772</v>
+        <v>84.642112394157</v>
       </c>
       <c r="D9" t="n">
-        <v>7.821949928624522</v>
+        <v>6.959038076588906</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.32093810439743</v>
+        <v>84.19926859684641</v>
       </c>
       <c r="D10" t="n">
-        <v>8.235465209354901</v>
+        <v>6.610716897320547</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.40974379308736</v>
+        <v>84.32041004808943</v>
       </c>
       <c r="D11" t="n">
-        <v>8.313730493810379</v>
+        <v>7.592054780941229</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>84.25594325383355</v>
+        <v>82.66268143211938</v>
       </c>
       <c r="D12" t="n">
-        <v>8.409234639071135</v>
+        <v>7.519116660809322</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.46683443338681</v>
+        <v>81.24485276971539</v>
       </c>
       <c r="D13" t="n">
-        <v>8.13073956681348</v>
+        <v>7.447283209523895</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.25416626475213</v>
+        <v>80.4652596684722</v>
       </c>
       <c r="D14" t="n">
-        <v>8.13097610098116</v>
+        <v>7.277967616118129</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.54992836132867</v>
+        <v>77.91574102426299</v>
       </c>
       <c r="D15" t="n">
-        <v>7.332914776397754</v>
+        <v>7.817349274036536</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>80.56677937417636</v>
+        <v>77.81210900764478</v>
       </c>
       <c r="D16" t="n">
-        <v>8.439268279158291</v>
+        <v>7.134493714924298</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.37602300340713</v>
+        <v>76.47901428918546</v>
       </c>
       <c r="D17" t="n">
-        <v>7.225537193994015</v>
+        <v>8.000011774008307</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.52596438594203</v>
+        <v>76.51899591745128</v>
       </c>
       <c r="D18" t="n">
-        <v>8.340506938887067</v>
+        <v>7.142646586853075</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.85250608365332</v>
+        <v>75.4134225327258</v>
       </c>
       <c r="D19" t="n">
-        <v>7.434273912751449</v>
+        <v>6.9794234335923</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.44803381660618</v>
+        <v>74.70706777575886</v>
       </c>
       <c r="D20" t="n">
-        <v>7.582292430872758</v>
+        <v>7.566615127522004</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.23465137243487</v>
+        <v>73.10231271408841</v>
       </c>
       <c r="D21" t="n">
-        <v>7.449986662839017</v>
+        <v>6.888572851424051</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.47458692877426</v>
+        <v>71.0070443043833</v>
       </c>
       <c r="D22" t="n">
-        <v>7.185542906293831</v>
+        <v>7.007929608913613</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.44922125655121</v>
+        <v>70.64739313402997</v>
       </c>
       <c r="D23" t="n">
-        <v>8.821409085176954</v>
+        <v>6.946522682638512</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.28314019207542</v>
+        <v>68.99335478705031</v>
       </c>
       <c r="D24" t="n">
-        <v>8.461255459500359</v>
+        <v>7.755059950443685</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.18104945839535</v>
+        <v>67.72350386059036</v>
       </c>
       <c r="D25" t="n">
-        <v>7.061180805932435</v>
+        <v>7.582191538240289</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.34967383678946</v>
+        <v>66.70301415913386</v>
       </c>
       <c r="D26" t="n">
-        <v>8.557934649200776</v>
+        <v>7.802310865713032</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.43942100385982</v>
+        <v>66.75355378876428</v>
       </c>
       <c r="D27" t="n">
-        <v>7.699026943649598</v>
+        <v>7.76015476383374</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.8779332287092</v>
+        <v>65.64352226534521</v>
       </c>
       <c r="D28" t="n">
-        <v>6.908950763628765</v>
+        <v>6.339433538602379</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.39863033443224</v>
+        <v>65.64785633861631</v>
       </c>
       <c r="D29" t="n">
-        <v>7.814125925522939</v>
+        <v>8.443819612363908</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.38240068449301</v>
+        <v>62.05058435926934</v>
       </c>
       <c r="D30" t="n">
-        <v>8.064947527514319</v>
+        <v>6.685380738439197</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.09180571489528</v>
+        <v>64.24832994776436</v>
       </c>
       <c r="D31" t="n">
-        <v>7.576619365943753</v>
+        <v>7.170231265829561</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.31201771083978</v>
+        <v>62.07532677757731</v>
       </c>
       <c r="D32" t="n">
-        <v>8.254929708852487</v>
+        <v>7.17610740296361</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.40986084616326</v>
+        <v>59.60147493198649</v>
       </c>
       <c r="D33" t="n">
-        <v>7.108099375441974</v>
+        <v>7.124297202241724</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.98640377210621</v>
+        <v>57.54343600222992</v>
       </c>
       <c r="D34" t="n">
-        <v>8.266921598708464</v>
+        <v>7.257994160008386</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.60975552417369</v>
+        <v>58.68040139202527</v>
       </c>
       <c r="D35" t="n">
-        <v>8.213134441717678</v>
+        <v>7.909715909039988</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.41514140027276</v>
+        <v>57.34624246841996</v>
       </c>
       <c r="D36" t="n">
-        <v>8.199194060713866</v>
+        <v>6.721493538154996</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.36793153293722</v>
+        <v>54.5457571745344</v>
       </c>
       <c r="D37" t="n">
-        <v>7.224014004500544</v>
+        <v>6.69204232206587</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.44084764888763</v>
+        <v>54.28010084207585</v>
       </c>
       <c r="D38" t="n">
-        <v>7.256996223383406</v>
+        <v>8.112432415917286</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.59011512880451</v>
+        <v>53.87364029316366</v>
       </c>
       <c r="D39" t="n">
-        <v>8.523798194014939</v>
+        <v>7.456888928211038</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.47454009193004</v>
+        <v>51.89695401505658</v>
       </c>
       <c r="D40" t="n">
-        <v>7.031319460024254</v>
+        <v>7.978981144955833</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.63878283725409</v>
+        <v>51.66248285283241</v>
       </c>
       <c r="D41" t="n">
-        <v>7.823174824168953</v>
+        <v>6.91617563166992</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.69754802539711</v>
+        <v>49.92507503812779</v>
       </c>
       <c r="D42" t="n">
-        <v>8.149739615198367</v>
+        <v>6.928124879570949</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>51.14006799380117</v>
+        <v>51.50431376949791</v>
       </c>
       <c r="D43" t="n">
-        <v>7.121124336030237</v>
+        <v>8.362016656498259</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.36029000574811</v>
+        <v>48.32812165023633</v>
       </c>
       <c r="D44" t="n">
-        <v>7.734144764325917</v>
+        <v>7.824073152442332</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.27448023202741</v>
+        <v>49.44962248452027</v>
       </c>
       <c r="D45" t="n">
-        <v>8.081565163821173</v>
+        <v>7.86980506292309</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.63051297297164</v>
+        <v>47.51414135925744</v>
       </c>
       <c r="D46" t="n">
-        <v>7.00431230745469</v>
+        <v>7.271157272249052</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.14851730556202</v>
+        <v>46.49571994749814</v>
       </c>
       <c r="D47" t="n">
-        <v>6.694608547129258</v>
+        <v>6.941529241865847</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.49599287323603</v>
+        <v>45.27397780536223</v>
       </c>
       <c r="D48" t="n">
-        <v>7.28107546787718</v>
+        <v>7.141525890663329</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.2427384482445</v>
+        <v>44.07903882320251</v>
       </c>
       <c r="D49" t="n">
-        <v>6.899478136059988</v>
+        <v>7.024702590646216</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.26722402789238</v>
+        <v>40.9166721084714</v>
       </c>
       <c r="D50" t="n">
-        <v>7.801886052566694</v>
+        <v>7.2416790298074</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.55214658306609</v>
+        <v>41.92138416447539</v>
       </c>
       <c r="D51" t="n">
-        <v>7.314354040845549</v>
+        <v>7.095742208708825</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.09470393522398</v>
+        <v>39.61312829866919</v>
       </c>
       <c r="D52" t="n">
-        <v>6.710346144219304</v>
+        <v>7.52669334257704</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.87839155421806</v>
+        <v>39.49400876169648</v>
       </c>
       <c r="D53" t="n">
-        <v>7.465085879905514</v>
+        <v>6.732704546915892</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.46868720959098</v>
+        <v>38.01184693271028</v>
       </c>
       <c r="D54" t="n">
-        <v>7.574375959032734</v>
+        <v>8.166483363827064</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.81463118432669</v>
+        <v>37.92087639483339</v>
       </c>
       <c r="D55" t="n">
-        <v>6.959225361703786</v>
+        <v>6.726559628326494</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.80325496850308</v>
+        <v>35.44170575723944</v>
       </c>
       <c r="D56" t="n">
-        <v>6.952376189318412</v>
+        <v>7.107378648023605</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.12269135716345</v>
+        <v>34.88535232647769</v>
       </c>
       <c r="D57" t="n">
-        <v>7.707922858253621</v>
+        <v>7.564044714228368</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.98290213252143</v>
+        <v>34.36098320677799</v>
       </c>
       <c r="D58" t="n">
-        <v>6.906554449309483</v>
+        <v>7.85199363674838</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.66068751954346</v>
+        <v>33.40897673777723</v>
       </c>
       <c r="D59" t="n">
-        <v>6.795914623316228</v>
+        <v>7.719036438757644</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.15387028130618</v>
+        <v>31.60586743967247</v>
       </c>
       <c r="D60" t="n">
-        <v>7.130827659589601</v>
+        <v>7.284027333165846</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.32987139576553</v>
+        <v>31.25502471318258</v>
       </c>
       <c r="D61" t="n">
-        <v>6.751280327092307</v>
+        <v>6.88382690600358</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.79428016728331</v>
+        <v>29.63919990365613</v>
       </c>
       <c r="D62" t="n">
-        <v>7.382690605752025</v>
+        <v>7.184644204349619</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.39549189011025</v>
+        <v>28.65134167991311</v>
       </c>
       <c r="D63" t="n">
-        <v>7.598085358278901</v>
+        <v>7.624380177252116</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.92621473724602</v>
+        <v>27.38394471374088</v>
       </c>
       <c r="D64" t="n">
-        <v>7.83520827809202</v>
+        <v>7.188930440381829</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.64087565766094</v>
+        <v>26.99664614297592</v>
       </c>
       <c r="D65" t="n">
-        <v>6.99388305936058</v>
+        <v>6.969744292086293</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.68855859793684</v>
+        <v>25.91605297834294</v>
       </c>
       <c r="D66" t="n">
-        <v>6.683562281977436</v>
+        <v>6.439909985872076</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.44398346544732</v>
+        <v>24.17891008451859</v>
       </c>
       <c r="D67" t="n">
-        <v>6.118168797923516</v>
+        <v>7.321920636954953</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.20822322281304</v>
+        <v>23.79617831936433</v>
       </c>
       <c r="D68" t="n">
-        <v>6.661171352154177</v>
+        <v>7.619227484524637</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.74429292502073</v>
+        <v>22.11102256280106</v>
       </c>
       <c r="D69" t="n">
-        <v>7.228363714380541</v>
+        <v>6.864022417471771</v>
       </c>
     </row>
   </sheetData>
